--- a/aiurt-module-system/src/main/resources/templates/emergencyPlanExport.xlsx
+++ b/aiurt-module-system/src/main/resources/templates/emergencyPlanExport.xlsx
@@ -7,7 +7,7 @@
     <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="应急预案导出模板" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -1313,7 +1313,7 @@
   <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
